--- a/Team-Data/2011-12/1-8-2011-12.xlsx
+++ b/Team-Data/2011-12/1-8-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,16 +811,16 @@
         <v>7.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="n">
         <v>4</v>
       </c>
       <c r="AF2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG2" t="n">
         <v>8</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>7</v>
       </c>
       <c r="AH2" t="n">
         <v>1</v>
@@ -765,7 +832,7 @@
         <v>5</v>
       </c>
       <c r="AK2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL2" t="n">
         <v>8</v>
@@ -774,10 +841,10 @@
         <v>15</v>
       </c>
       <c r="AN2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP2" t="n">
         <v>12</v>
@@ -786,19 +853,19 @@
         <v>25</v>
       </c>
       <c r="AR2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS2" t="n">
         <v>14</v>
       </c>
       <c r="AT2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU2" t="n">
         <v>7</v>
       </c>
       <c r="AV2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW2" t="n">
         <v>9</v>
@@ -807,10 +874,10 @@
         <v>14</v>
       </c>
       <c r="AY2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA2" t="n">
         <v>15</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-8-2011-12</t>
+          <t>2012-01-08</t>
         </is>
       </c>
     </row>
@@ -926,16 +993,16 @@
         <v>0.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE3" t="n">
         <v>13</v>
       </c>
       <c r="AF3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
         <v>6</v>
@@ -965,7 +1032,7 @@
         <v>15</v>
       </c>
       <c r="AQ3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AR3" t="n">
         <v>26</v>
@@ -980,10 +1047,10 @@
         <v>5</v>
       </c>
       <c r="AV3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AX3" t="n">
         <v>5</v>
@@ -992,16 +1059,16 @@
         <v>27</v>
       </c>
       <c r="AZ3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB3" t="n">
         <v>21</v>
       </c>
       <c r="BC3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-8-2011-12</t>
+          <t>2012-01-08</t>
         </is>
       </c>
     </row>
@@ -1108,19 +1175,19 @@
         <v>-11.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI4" t="n">
         <v>6</v>
@@ -1129,10 +1196,10 @@
         <v>1</v>
       </c>
       <c r="AK4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL4" t="n">
         <v>21</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>20</v>
       </c>
       <c r="AM4" t="n">
         <v>21</v>
@@ -1147,7 +1214,7 @@
         <v>27</v>
       </c>
       <c r="AQ4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR4" t="n">
         <v>4</v>
@@ -1159,7 +1226,7 @@
         <v>6</v>
       </c>
       <c r="AU4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV4" t="n">
         <v>16</v>
@@ -1171,19 +1238,19 @@
         <v>10</v>
       </c>
       <c r="AY4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA4" t="n">
         <v>26</v>
       </c>
       <c r="BB4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-8-2011-12</t>
+          <t>2012-01-08</t>
         </is>
       </c>
     </row>
@@ -1290,16 +1357,16 @@
         <v>8.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF5" t="n">
         <v>2</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH5" t="n">
         <v>6</v>
@@ -1308,19 +1375,19 @@
         <v>9</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK5" t="n">
         <v>10</v>
       </c>
       <c r="AL5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM5" t="n">
         <v>22</v>
       </c>
       <c r="AN5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO5" t="n">
         <v>15</v>
@@ -1335,7 +1402,7 @@
         <v>2</v>
       </c>
       <c r="AS5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT5" t="n">
         <v>6</v>
@@ -1344,16 +1411,16 @@
         <v>2</v>
       </c>
       <c r="AV5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AW5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX5" t="n">
         <v>11</v>
       </c>
       <c r="AY5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ5" t="n">
         <v>4</v>
@@ -1362,7 +1429,7 @@
         <v>27</v>
       </c>
       <c r="BB5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC5" t="n">
         <v>3</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-8-2011-12</t>
+          <t>2012-01-08</t>
         </is>
       </c>
     </row>
@@ -1394,118 +1461,118 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5</v>
+        <v>0.571</v>
       </c>
       <c r="H6" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I6" t="n">
-        <v>35.3</v>
+        <v>36.1</v>
       </c>
       <c r="J6" t="n">
-        <v>81.40000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="K6" t="n">
-        <v>0.433</v>
+        <v>0.442</v>
       </c>
       <c r="L6" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="M6" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="O6" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.6929999999999999</v>
+      </c>
+      <c r="R6" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="T6" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="U6" t="n">
         <v>21</v>
       </c>
-      <c r="N6" t="n">
-        <v>0.369</v>
-      </c>
-      <c r="O6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.695</v>
-      </c>
-      <c r="R6" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="S6" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="T6" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="U6" t="n">
-        <v>20.5</v>
-      </c>
       <c r="V6" t="n">
-        <v>16.1</v>
+        <v>15</v>
       </c>
       <c r="W6" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X6" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>94.8</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.9</v>
+        <v>3.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
       </c>
       <c r="AF6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG6" t="n">
         <v>13</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>14</v>
       </c>
       <c r="AH6" t="n">
         <v>3</v>
       </c>
       <c r="AI6" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AJ6" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AK6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AN6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AP6" t="n">
         <v>14</v>
@@ -1517,37 +1584,37 @@
         <v>16</v>
       </c>
       <c r="AS6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AT6" t="n">
         <v>15</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AU6" t="n">
         <v>14</v>
       </c>
-      <c r="AU6" t="n">
-        <v>18</v>
-      </c>
       <c r="AV6" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AW6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX6" t="n">
         <v>3</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA6" t="n">
         <v>17</v>
       </c>
       <c r="BB6" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BC6" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-8-2011-12</t>
+          <t>2012-01-08</t>
         </is>
       </c>
     </row>
@@ -1654,22 +1721,22 @@
         <v>-2.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
       </c>
       <c r="AF7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH7" t="n">
         <v>6</v>
       </c>
       <c r="AI7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ7" t="n">
         <v>17</v>
@@ -1690,40 +1757,40 @@
         <v>8</v>
       </c>
       <c r="AP7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ7" t="n">
         <v>7</v>
       </c>
       <c r="AR7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT7" t="n">
         <v>24</v>
       </c>
       <c r="AU7" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AV7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY7" t="n">
         <v>2</v>
       </c>
       <c r="AZ7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BB7" t="n">
         <v>20</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-8-2011-12</t>
+          <t>2012-01-08</t>
         </is>
       </c>
     </row>
@@ -1836,16 +1903,16 @@
         <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>4</v>
       </c>
       <c r="AF8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG8" t="n">
         <v>8</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>7</v>
       </c>
       <c r="AH8" t="n">
         <v>6</v>
@@ -1860,10 +1927,10 @@
         <v>2</v>
       </c>
       <c r="AL8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN8" t="n">
         <v>26</v>
@@ -1887,25 +1954,25 @@
         <v>18</v>
       </c>
       <c r="AU8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
       </c>
       <c r="AX8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB8" t="n">
         <v>2</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-8-2011-12</t>
+          <t>2012-01-08</t>
         </is>
       </c>
     </row>
@@ -2018,25 +2085,25 @@
         <v>-10.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF9" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH9" t="n">
         <v>6</v>
       </c>
       <c r="AI9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK9" t="n">
         <v>25</v>
@@ -2060,7 +2127,7 @@
         <v>8</v>
       </c>
       <c r="AR9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS9" t="n">
         <v>29</v>
@@ -2075,13 +2142,13 @@
         <v>27</v>
       </c>
       <c r="AW9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX9" t="n">
         <v>30</v>
       </c>
       <c r="AY9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ9" t="n">
         <v>5</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-8-2011-12</t>
+          <t>2012-01-08</t>
         </is>
       </c>
     </row>
@@ -2200,16 +2267,16 @@
         <v>-6.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF10" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH10" t="n">
         <v>6</v>
@@ -2221,52 +2288,52 @@
         <v>26</v>
       </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL10" t="n">
         <v>19</v>
       </c>
       <c r="AM10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN10" t="n">
         <v>15</v>
       </c>
       <c r="AO10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>27</v>
+      </c>
+      <c r="AR10" t="n">
         <v>20</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>28</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>21</v>
       </c>
       <c r="AS10" t="n">
         <v>17</v>
       </c>
       <c r="AT10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV10" t="n">
         <v>17</v>
       </c>
       <c r="AW10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA10" t="n">
         <v>25</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-8-2011-12</t>
+          <t>2012-01-08</t>
         </is>
       </c>
     </row>
@@ -2382,16 +2449,16 @@
         <v>-6.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF11" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH11" t="n">
         <v>6</v>
@@ -2400,13 +2467,13 @@
         <v>5</v>
       </c>
       <c r="AJ11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AK11" t="n">
         <v>9</v>
       </c>
       <c r="AL11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM11" t="n">
         <v>5</v>
@@ -2424,13 +2491,13 @@
         <v>5</v>
       </c>
       <c r="AR11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU11" t="n">
         <v>10</v>
@@ -2442,19 +2509,19 @@
         <v>25</v>
       </c>
       <c r="AX11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY11" t="n">
         <v>13</v>
       </c>
       <c r="AZ11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA11" t="n">
         <v>30</v>
       </c>
       <c r="BB11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC11" t="n">
         <v>25</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-8-2011-12</t>
+          <t>2012-01-08</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>3.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE12" t="n">
         <v>4</v>
@@ -2576,10 +2643,10 @@
         <v>4</v>
       </c>
       <c r="AH12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ12" t="n">
         <v>15</v>
@@ -2588,7 +2655,7 @@
         <v>27</v>
       </c>
       <c r="AL12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM12" t="n">
         <v>24</v>
@@ -2597,10 +2664,10 @@
         <v>3</v>
       </c>
       <c r="AO12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ12" t="n">
         <v>6</v>
@@ -2609,7 +2676,7 @@
         <v>5</v>
       </c>
       <c r="AS12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT12" t="n">
         <v>5</v>
@@ -2627,19 +2694,19 @@
         <v>12</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
         <v>24</v>
       </c>
       <c r="BA12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BB12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-8-2011-12</t>
+          <t>2012-01-08</t>
         </is>
       </c>
     </row>
@@ -2755,7 +2822,7 @@
         <v>2</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH13" t="n">
         <v>6</v>
@@ -2764,16 +2831,16 @@
         <v>8</v>
       </c>
       <c r="AJ13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK13" t="n">
         <v>3</v>
       </c>
       <c r="AL13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN13" t="n">
         <v>16</v>
@@ -2818,10 +2885,10 @@
         <v>1</v>
       </c>
       <c r="BB13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-8-2011-12</t>
+          <t>2012-01-08</t>
         </is>
       </c>
     </row>
@@ -2850,109 +2917,109 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
         <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6</v>
+        <v>0.556</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="J14" t="n">
-        <v>79</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.462</v>
+        <v>0.461</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M14" t="n">
-        <v>16.6</v>
+        <v>16.3</v>
       </c>
       <c r="N14" t="n">
-        <v>0.241</v>
+        <v>0.231</v>
       </c>
       <c r="O14" t="n">
-        <v>17.6</v>
+        <v>18</v>
       </c>
       <c r="P14" t="n">
-        <v>24.1</v>
+        <v>24.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.73</v>
+        <v>0.736</v>
       </c>
       <c r="R14" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S14" t="n">
-        <v>34.5</v>
+        <v>33.9</v>
       </c>
       <c r="T14" t="n">
-        <v>46.7</v>
+        <v>46</v>
       </c>
       <c r="U14" t="n">
-        <v>21.7</v>
+        <v>21.4</v>
       </c>
       <c r="V14" t="n">
-        <v>16.7</v>
+        <v>15.6</v>
       </c>
       <c r="W14" t="n">
         <v>5.7</v>
       </c>
       <c r="X14" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y14" t="n">
         <v>4.1</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.4</v>
+        <v>21.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>94.59999999999999</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC14" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AF14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
         <v>6</v>
       </c>
       <c r="AI14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ14" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AK14" t="n">
         <v>7</v>
       </c>
       <c r="AL14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM14" t="n">
         <v>20</v>
@@ -2961,49 +3028,49 @@
         <v>29</v>
       </c>
       <c r="AO14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP14" t="n">
         <v>13</v>
       </c>
       <c r="AQ14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS14" t="n">
         <v>3</v>
       </c>
       <c r="AT14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU14" t="n">
         <v>11</v>
       </c>
       <c r="AV14" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AW14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ14" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="BA14" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BB14" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BC14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-8-2011-12</t>
+          <t>2012-01-08</t>
         </is>
       </c>
     </row>
@@ -3032,106 +3099,106 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
         <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>0.375</v>
+        <v>0.429</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="J15" t="n">
-        <v>83.5</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.439</v>
+        <v>0.443</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="M15" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="O15" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="P15" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="R15" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="S15" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="T15" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="U15" t="n">
+        <v>17</v>
+      </c>
+      <c r="V15" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="W15" t="n">
         <v>10</v>
       </c>
-      <c r="N15" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="O15" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="P15" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.713</v>
-      </c>
-      <c r="R15" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="S15" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="T15" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="U15" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="V15" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="W15" t="n">
-        <v>11</v>
-      </c>
       <c r="X15" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.5</v>
+        <v>20.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>90.5</v>
+        <v>91.7</v>
       </c>
       <c r="AC15" t="n">
-        <v>-4</v>
+        <v>-3.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AE15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG15" t="n">
         <v>18</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>19</v>
       </c>
       <c r="AH15" t="n">
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AK15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL15" t="n">
         <v>30</v>
@@ -3143,49 +3210,49 @@
         <v>30</v>
       </c>
       <c r="AO15" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AP15" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AQ15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT15" t="n">
         <v>9</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AU15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX15" t="n">
         <v>19</v>
       </c>
-      <c r="AT15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>25</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX15" t="n">
+      <c r="AY15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>17</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>22</v>
+      </c>
+      <c r="BC15" t="n">
         <v>20</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>28</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>11</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>21</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>23</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>21</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-8-2011-12</t>
+          <t>2012-01-08</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>11.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE16" t="n">
         <v>1</v>
@@ -3310,7 +3377,7 @@
         <v>1</v>
       </c>
       <c r="AJ16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK16" t="n">
         <v>1</v>
@@ -3322,13 +3389,13 @@
         <v>27</v>
       </c>
       <c r="AN16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO16" t="n">
         <v>4</v>
       </c>
       <c r="AP16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ16" t="n">
         <v>9</v>
@@ -3340,7 +3407,7 @@
         <v>2</v>
       </c>
       <c r="AT16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU16" t="n">
         <v>1</v>
@@ -3349,16 +3416,16 @@
         <v>29</v>
       </c>
       <c r="AW16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY16" t="n">
         <v>4</v>
       </c>
-      <c r="AX16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>5</v>
-      </c>
       <c r="AZ16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA16" t="n">
         <v>3</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-8-2011-12</t>
+          <t>2012-01-08</t>
         </is>
       </c>
     </row>
@@ -3396,94 +3463,94 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" t="n">
         <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G17" t="n">
-        <v>0.25</v>
+        <v>0.286</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="J17" t="n">
-        <v>84.5</v>
+        <v>84.3</v>
       </c>
       <c r="K17" t="n">
-        <v>0.42</v>
+        <v>0.419</v>
       </c>
       <c r="L17" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="M17" t="n">
-        <v>19.1</v>
+        <v>19.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.281</v>
+        <v>0.29</v>
       </c>
       <c r="O17" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.741</v>
+      </c>
+      <c r="R17" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="T17" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="U17" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="V17" t="n">
         <v>15.3</v>
       </c>
-      <c r="P17" t="n">
+      <c r="W17" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="X17" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="AA17" t="n">
         <v>20.9</v>
       </c>
-      <c r="Q17" t="n">
-        <v>0.731</v>
-      </c>
-      <c r="R17" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="S17" t="n">
-        <v>29</v>
-      </c>
-      <c r="T17" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="U17" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="V17" t="n">
-        <v>15</v>
-      </c>
-      <c r="W17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>20.8</v>
-      </c>
       <c r="AB17" t="n">
-        <v>91.59999999999999</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-2.4</v>
+        <v>-0.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AE17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG17" t="n">
         <v>22</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>23</v>
       </c>
       <c r="AH17" t="n">
         <v>6</v>
@@ -3492,19 +3559,19 @@
         <v>15</v>
       </c>
       <c r="AJ17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK17" t="n">
         <v>24</v>
       </c>
       <c r="AL17" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AM17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN17" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO17" t="n">
         <v>24</v>
@@ -3513,40 +3580,40 @@
         <v>25</v>
       </c>
       <c r="AQ17" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AR17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AS17" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AT17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AU17" t="n">
         <v>12</v>
       </c>
       <c r="AV17" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AW17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AX17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ17" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="BA17" t="n">
         <v>16</v>
       </c>
       <c r="BB17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC17" t="n">
         <v>18</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-8-2011-12</t>
+          <t>2012-01-08</t>
         </is>
       </c>
     </row>
@@ -3578,136 +3645,136 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
         <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0.375</v>
+        <v>0.286</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
       </c>
       <c r="I18" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="J18" t="n">
         <v>79.59999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L18" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="M18" t="n">
-        <v>21.9</v>
+        <v>21.3</v>
       </c>
       <c r="N18" t="n">
-        <v>0.36</v>
+        <v>0.356</v>
       </c>
       <c r="O18" t="n">
-        <v>17.3</v>
+        <v>18.1</v>
       </c>
       <c r="P18" t="n">
-        <v>25</v>
+        <v>26.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="R18" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="S18" t="n">
         <v>33.9</v>
       </c>
       <c r="T18" t="n">
-        <v>46.5</v>
+        <v>46.9</v>
       </c>
       <c r="U18" t="n">
-        <v>17.8</v>
+        <v>17.1</v>
       </c>
       <c r="V18" t="n">
-        <v>18.6</v>
+        <v>18.9</v>
       </c>
       <c r="W18" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="X18" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="Z18" t="n">
-        <v>20.3</v>
+        <v>20.6</v>
       </c>
       <c r="AA18" t="n">
-        <v>21.6</v>
+        <v>22.3</v>
       </c>
       <c r="AB18" t="n">
-        <v>95.90000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="AC18" t="n">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AE18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF18" t="n">
         <v>19</v>
       </c>
-      <c r="AF18" t="n">
-        <v>18</v>
-      </c>
       <c r="AG18" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AH18" t="n">
         <v>6</v>
       </c>
       <c r="AI18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ18" t="n">
         <v>18</v>
       </c>
       <c r="AK18" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AL18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AM18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AN18" t="n">
         <v>11</v>
       </c>
       <c r="AO18" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AP18" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AQ18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR18" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AS18" t="n">
         <v>4</v>
       </c>
       <c r="AT18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV18" t="n">
         <v>30</v>
@@ -3716,22 +3783,22 @@
         <v>23</v>
       </c>
       <c r="AX18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY18" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AZ18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BB18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC18" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-8-2011-12</t>
+          <t>2012-01-08</t>
         </is>
       </c>
     </row>
@@ -3838,10 +3905,10 @@
         <v>-11.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF19" t="n">
         <v>29</v>
@@ -3862,16 +3929,16 @@
         <v>30</v>
       </c>
       <c r="AL19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM19" t="n">
         <v>2</v>
       </c>
       <c r="AN19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP19" t="n">
         <v>17</v>
@@ -3883,34 +3950,34 @@
         <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW19" t="n">
         <v>16</v>
       </c>
       <c r="AX19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC19" t="n">
         <v>28</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-8-2011-12</t>
+          <t>2012-01-08</t>
         </is>
       </c>
     </row>
@@ -4020,25 +4087,25 @@
         <v>-5.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF20" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH20" t="n">
         <v>6</v>
       </c>
       <c r="AI20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK20" t="n">
         <v>23</v>
@@ -4047,13 +4114,13 @@
         <v>29</v>
       </c>
       <c r="AM20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN20" t="n">
         <v>27</v>
       </c>
       <c r="AO20" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AP20" t="n">
         <v>23</v>
@@ -4062,7 +4129,7 @@
         <v>12</v>
       </c>
       <c r="AR20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS20" t="n">
         <v>5</v>
@@ -4074,10 +4141,10 @@
         <v>24</v>
       </c>
       <c r="AV20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW20" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AX20" t="n">
         <v>12</v>
@@ -4086,13 +4153,13 @@
         <v>28</v>
       </c>
       <c r="AZ20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA20" t="n">
         <v>23</v>
       </c>
       <c r="BB20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC20" t="n">
         <v>23</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-8-2011-12</t>
+          <t>2012-01-08</t>
         </is>
       </c>
     </row>
@@ -4202,16 +4269,16 @@
         <v>0.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
         <v>13</v>
       </c>
       <c r="AF21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH21" t="n">
         <v>6</v>
@@ -4220,13 +4287,13 @@
         <v>21</v>
       </c>
       <c r="AJ21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM21" t="n">
         <v>1</v>
@@ -4235,16 +4302,16 @@
         <v>18</v>
       </c>
       <c r="AO21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP21" t="n">
         <v>6</v>
       </c>
       <c r="AQ21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS21" t="n">
         <v>25</v>
@@ -4253,10 +4320,10 @@
         <v>27</v>
       </c>
       <c r="AU21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW21" t="n">
         <v>5</v>
@@ -4265,19 +4332,19 @@
         <v>18</v>
       </c>
       <c r="AY21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA21" t="n">
         <v>4</v>
       </c>
       <c r="BB21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-8-2011-12</t>
+          <t>2012-01-08</t>
         </is>
       </c>
     </row>
@@ -4306,28 +4373,28 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" t="n">
         <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8</v>
+        <v>0.778</v>
       </c>
       <c r="H22" t="n">
         <v>48</v>
       </c>
       <c r="I22" t="n">
-        <v>35.9</v>
+        <v>35.7</v>
       </c>
       <c r="J22" t="n">
-        <v>76.7</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.468</v>
+        <v>0.464</v>
       </c>
       <c r="L22" t="n">
         <v>7</v>
@@ -4336,58 +4403,58 @@
         <v>18.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0.37</v>
+        <v>0.371</v>
       </c>
       <c r="O22" t="n">
-        <v>21.7</v>
+        <v>21.3</v>
       </c>
       <c r="P22" t="n">
-        <v>26.8</v>
+        <v>26.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.803</v>
       </c>
       <c r="R22" t="n">
-        <v>9.6</v>
+        <v>9.9</v>
       </c>
       <c r="S22" t="n">
-        <v>32.5</v>
+        <v>31.6</v>
       </c>
       <c r="T22" t="n">
-        <v>42.1</v>
+        <v>41.4</v>
       </c>
       <c r="U22" t="n">
-        <v>19.6</v>
+        <v>19</v>
       </c>
       <c r="V22" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="W22" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="X22" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="Z22" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AB22" t="n">
-        <v>100.5</v>
+        <v>99.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF22" t="n">
         <v>2</v>
@@ -4402,7 +4469,7 @@
         <v>14</v>
       </c>
       <c r="AJ22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK22" t="n">
         <v>6</v>
@@ -4414,52 +4481,52 @@
         <v>14</v>
       </c>
       <c r="AN22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR22" t="n">
+        <v>24</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AV22" t="n">
         <v>25</v>
       </c>
-      <c r="AS22" t="n">
+      <c r="AW22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AX22" t="n">
         <v>9</v>
       </c>
-      <c r="AT22" t="n">
-        <v>16</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>7</v>
-      </c>
       <c r="AY22" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ22" t="n">
         <v>17</v>
       </c>
       <c r="BA22" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BB22" t="n">
         <v>5</v>
       </c>
       <c r="BC22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-8-2011-12</t>
+          <t>2012-01-08</t>
         </is>
       </c>
     </row>
@@ -4488,157 +4555,157 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23" t="n">
         <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>0.667</v>
+        <v>0.625</v>
       </c>
       <c r="H23" t="n">
         <v>48</v>
       </c>
       <c r="I23" t="n">
-        <v>35.3</v>
+        <v>35.1</v>
       </c>
       <c r="J23" t="n">
-        <v>79.3</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.445</v>
+        <v>0.448</v>
       </c>
       <c r="L23" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="M23" t="n">
-        <v>24.3</v>
+        <v>23.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.379</v>
+        <v>0.39</v>
       </c>
       <c r="O23" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="P23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.667</v>
+        <v>0.67</v>
       </c>
       <c r="R23" t="n">
-        <v>11.4</v>
+        <v>10.8</v>
       </c>
       <c r="S23" t="n">
-        <v>29.7</v>
+        <v>30.1</v>
       </c>
       <c r="T23" t="n">
-        <v>41.1</v>
+        <v>40.9</v>
       </c>
       <c r="U23" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="V23" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="W23" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X23" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="Y23" t="n">
         <v>4.4</v>
       </c>
       <c r="Z23" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AA23" t="n">
-        <v>21.9</v>
+        <v>21.6</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.2</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AE23" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AF23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG23" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AH23" t="n">
         <v>6</v>
       </c>
       <c r="AI23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ23" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AK23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM23" t="n">
         <v>3</v>
       </c>
       <c r="AN23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP23" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AQ23" t="n">
         <v>29</v>
       </c>
       <c r="AR23" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AS23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AU23" t="n">
         <v>16</v>
       </c>
       <c r="AV23" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AW23" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AX23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY23" t="n">
         <v>10</v>
       </c>
       <c r="AZ23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA23" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BB23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BC23" t="n">
         <v>7</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-8-2011-12</t>
+          <t>2012-01-08</t>
         </is>
       </c>
     </row>
@@ -4748,10 +4815,10 @@
         <v>15.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AE24" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AF24" t="n">
         <v>2</v>
@@ -4766,13 +4833,13 @@
         <v>2</v>
       </c>
       <c r="AJ24" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AK24" t="n">
         <v>4</v>
       </c>
       <c r="AL24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM24" t="n">
         <v>16</v>
@@ -4781,16 +4848,16 @@
         <v>12</v>
       </c>
       <c r="AO24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP24" t="n">
         <v>19</v>
       </c>
       <c r="AQ24" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AR24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS24" t="n">
         <v>1</v>
@@ -4814,13 +4881,13 @@
         <v>12</v>
       </c>
       <c r="AZ24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA24" t="n">
         <v>22</v>
       </c>
       <c r="BB24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC24" t="n">
         <v>1</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-8-2011-12</t>
+          <t>2012-01-08</t>
         </is>
       </c>
     </row>
@@ -4852,160 +4919,160 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
         <v>4</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>0.429</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>36.1</v>
+        <v>35.1</v>
       </c>
       <c r="J25" t="n">
-        <v>81.5</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.443</v>
+        <v>0.428</v>
       </c>
       <c r="L25" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M25" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="N25" t="n">
-        <v>0.311</v>
+        <v>0.29</v>
       </c>
       <c r="O25" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="P25" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.8110000000000001</v>
+      </c>
+      <c r="R25" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="S25" t="n">
+        <v>32</v>
+      </c>
+      <c r="T25" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="U25" t="n">
         <v>20</v>
       </c>
-      <c r="Q25" t="n">
-        <v>0.806</v>
-      </c>
-      <c r="R25" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="S25" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="T25" t="n">
-        <v>43</v>
-      </c>
-      <c r="U25" t="n">
-        <v>21.3</v>
-      </c>
       <c r="V25" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="W25" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="X25" t="n">
         <v>5</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.3</v>
+        <v>22.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>94.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AE25" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AF25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG25" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AH25" t="n">
         <v>6</v>
       </c>
       <c r="AI25" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AJ25" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AK25" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AL25" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AM25" t="n">
         <v>8</v>
       </c>
       <c r="AN25" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AO25" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU25" t="n">
         <v>19</v>
       </c>
-      <c r="AP25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>16</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>14</v>
-      </c>
       <c r="AV25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW25" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AX25" t="n">
         <v>16</v>
       </c>
       <c r="AY25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AZ25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA25" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>19</v>
+      </c>
+      <c r="BC25" t="n">
         <v>14</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>14</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>12</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-8-2011-12</t>
+          <t>2012-01-08</t>
         </is>
       </c>
     </row>
@@ -5034,64 +5101,64 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26" t="n">
         <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>0.75</v>
+        <v>0.714</v>
       </c>
       <c r="H26" t="n">
         <v>48</v>
       </c>
       <c r="I26" t="n">
-        <v>36.3</v>
+        <v>36</v>
       </c>
       <c r="J26" t="n">
-        <v>84.09999999999999</v>
+        <v>83</v>
       </c>
       <c r="K26" t="n">
-        <v>0.431</v>
+        <v>0.434</v>
       </c>
       <c r="L26" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="M26" t="n">
-        <v>17.6</v>
+        <v>16.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.305</v>
+        <v>0.314</v>
       </c>
       <c r="O26" t="n">
-        <v>21.1</v>
+        <v>21.9</v>
       </c>
       <c r="P26" t="n">
-        <v>26.4</v>
+        <v>27.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.801</v>
+        <v>0.793</v>
       </c>
       <c r="R26" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="S26" t="n">
         <v>32.6</v>
       </c>
       <c r="T26" t="n">
-        <v>44.4</v>
+        <v>44.7</v>
       </c>
       <c r="U26" t="n">
-        <v>21.5</v>
+        <v>20.7</v>
       </c>
       <c r="V26" t="n">
         <v>14</v>
       </c>
       <c r="W26" t="n">
-        <v>7.6</v>
+        <v>6.7</v>
       </c>
       <c r="X26" t="n">
         <v>6</v>
@@ -5100,61 +5167,61 @@
         <v>4.9</v>
       </c>
       <c r="Z26" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AA26" t="n">
-        <v>22.5</v>
+        <v>22.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.8</v>
+        <v>3.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AE26" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AF26" t="n">
         <v>2</v>
       </c>
       <c r="AG26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AH26" t="n">
         <v>6</v>
       </c>
       <c r="AI26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ26" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AK26" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP26" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AQ26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS26" t="n">
         <v>8</v>
@@ -5163,31 +5230,31 @@
         <v>8</v>
       </c>
       <c r="AU26" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AV26" t="n">
         <v>8</v>
       </c>
       <c r="AW26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AX26" t="n">
         <v>4</v>
       </c>
       <c r="AY26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB26" t="n">
         <v>7</v>
       </c>
       <c r="BC26" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-8-2011-12</t>
+          <t>2012-01-08</t>
         </is>
       </c>
     </row>
@@ -5216,148 +5283,148 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27" t="n">
         <v>3</v>
       </c>
       <c r="F27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G27" t="n">
-        <v>0.333</v>
+        <v>0.375</v>
       </c>
       <c r="H27" t="n">
         <v>48</v>
       </c>
       <c r="I27" t="n">
-        <v>33.9</v>
+        <v>33.4</v>
       </c>
       <c r="J27" t="n">
-        <v>83.40000000000001</v>
+        <v>84.8</v>
       </c>
       <c r="K27" t="n">
-        <v>0.406</v>
+        <v>0.394</v>
       </c>
       <c r="L27" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="M27" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="N27" t="n">
-        <v>0.286</v>
+        <v>0.302</v>
       </c>
       <c r="O27" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="P27" t="n">
-        <v>28.2</v>
+        <v>28.8</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.717</v>
+        <v>0.713</v>
       </c>
       <c r="R27" t="n">
-        <v>15.3</v>
+        <v>16</v>
       </c>
       <c r="S27" t="n">
-        <v>28.3</v>
+        <v>27.5</v>
       </c>
       <c r="T27" t="n">
-        <v>43.7</v>
+        <v>43.5</v>
       </c>
       <c r="U27" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="V27" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="W27" t="n">
-        <v>8.1</v>
+        <v>8.6</v>
       </c>
       <c r="X27" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="Z27" t="n">
-        <v>19.9</v>
+        <v>19.4</v>
       </c>
       <c r="AA27" t="n">
-        <v>23.8</v>
+        <v>24.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>93.8</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>-8.6</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AE27" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF27" t="n">
         <v>19</v>
       </c>
-      <c r="AF27" t="n">
-        <v>22</v>
-      </c>
       <c r="AG27" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AH27" t="n">
         <v>6</v>
       </c>
       <c r="AI27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ27" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AK27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL27" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AM27" t="n">
         <v>10</v>
       </c>
       <c r="AN27" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AO27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP27" t="n">
         <v>2</v>
       </c>
       <c r="AQ27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR27" t="n">
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT27" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW27" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AX27" t="n">
         <v>21</v>
       </c>
       <c r="AY27" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ27" t="n">
         <v>9</v>
@@ -5366,7 +5433,7 @@
         <v>2</v>
       </c>
       <c r="BB27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC27" t="n">
         <v>26</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-8-2011-12</t>
+          <t>2012-01-08</t>
         </is>
       </c>
     </row>
@@ -5398,94 +5465,94 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28" t="n">
         <v>6</v>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>0.667</v>
+        <v>0.75</v>
       </c>
       <c r="H28" t="n">
         <v>48</v>
       </c>
       <c r="I28" t="n">
-        <v>38</v>
+        <v>38.4</v>
       </c>
       <c r="J28" t="n">
         <v>83.8</v>
       </c>
       <c r="K28" t="n">
-        <v>0.454</v>
+        <v>0.458</v>
       </c>
       <c r="L28" t="n">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>20.8</v>
+        <v>21.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.433</v>
+        <v>0.423</v>
       </c>
       <c r="O28" t="n">
-        <v>15.7</v>
+        <v>15.3</v>
       </c>
       <c r="P28" t="n">
-        <v>21.3</v>
+        <v>20.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.734</v>
+        <v>0.731</v>
       </c>
       <c r="R28" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S28" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="T28" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="U28" t="n">
-        <v>22.9</v>
+        <v>23.3</v>
       </c>
       <c r="V28" t="n">
-        <v>13.2</v>
+        <v>13.5</v>
       </c>
       <c r="W28" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="X28" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="Y28" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.9</v>
+        <v>17.4</v>
       </c>
       <c r="AA28" t="n">
         <v>19</v>
       </c>
       <c r="AB28" t="n">
-        <v>100.7</v>
+        <v>101.3</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.8</v>
+        <v>6.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AE28" t="n">
         <v>4</v>
       </c>
       <c r="AF28" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AG28" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AH28" t="n">
         <v>6</v>
@@ -5500,58 +5567,58 @@
         <v>8</v>
       </c>
       <c r="AL28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM28" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AN28" t="n">
         <v>2</v>
       </c>
       <c r="AO28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ28" t="n">
         <v>21</v>
       </c>
-      <c r="AP28" t="n">
+      <c r="AR28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AT28" t="n">
         <v>22</v>
       </c>
-      <c r="AQ28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>18</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>20</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>21</v>
-      </c>
       <c r="AU28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV28" t="n">
         <v>4</v>
       </c>
       <c r="AW28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX28" t="n">
         <v>23</v>
       </c>
       <c r="AY28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BA28" t="n">
         <v>24</v>
       </c>
       <c r="BB28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-8-2011-12</t>
+          <t>2012-01-08</t>
         </is>
       </c>
     </row>
@@ -5658,34 +5725,34 @@
         <v>-5.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF29" t="n">
         <v>19</v>
       </c>
-      <c r="AF29" t="n">
-        <v>18</v>
-      </c>
       <c r="AG29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH29" t="n">
         <v>6</v>
       </c>
       <c r="AI29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ29" t="n">
         <v>29</v>
       </c>
       <c r="AK29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-8-2011-12</t>
+          <t>2012-01-08</t>
         </is>
       </c>
     </row>
@@ -5840,16 +5907,16 @@
         <v>-3.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG30" t="n">
         <v>11</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>12</v>
       </c>
       <c r="AH30" t="n">
         <v>6</v>
@@ -5858,13 +5925,13 @@
         <v>21</v>
       </c>
       <c r="AJ30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK30" t="n">
         <v>19</v>
       </c>
       <c r="AL30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM30" t="n">
         <v>26</v>
@@ -5876,7 +5943,7 @@
         <v>10</v>
       </c>
       <c r="AP30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ30" t="n">
         <v>24</v>
@@ -5888,7 +5955,7 @@
         <v>16</v>
       </c>
       <c r="AT30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU30" t="n">
         <v>20</v>
@@ -5903,19 +5970,19 @@
         <v>2</v>
       </c>
       <c r="AY30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB30" t="n">
         <v>24</v>
       </c>
       <c r="BC30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-8-2011-12</t>
+          <t>2012-01-08</t>
         </is>
       </c>
     </row>
@@ -5944,13 +6011,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -5959,76 +6026,76 @@
         <v>48</v>
       </c>
       <c r="I31" t="n">
-        <v>32.9</v>
+        <v>33.3</v>
       </c>
       <c r="J31" t="n">
-        <v>82.8</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.397</v>
+        <v>0.405</v>
       </c>
       <c r="L31" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="M31" t="n">
-        <v>13</v>
+        <v>13.4</v>
       </c>
       <c r="N31" t="n">
-        <v>0.288</v>
+        <v>0.287</v>
       </c>
       <c r="O31" t="n">
-        <v>15.4</v>
+        <v>16.3</v>
       </c>
       <c r="P31" t="n">
-        <v>21</v>
+        <v>21.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.732</v>
+        <v>0.75</v>
       </c>
       <c r="R31" t="n">
-        <v>10.8</v>
+        <v>10</v>
       </c>
       <c r="S31" t="n">
         <v>29.3</v>
       </c>
       <c r="T31" t="n">
-        <v>40</v>
+        <v>39.3</v>
       </c>
       <c r="U31" t="n">
         <v>15.3</v>
       </c>
       <c r="V31" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W31" t="n">
         <v>9.1</v>
       </c>
       <c r="X31" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.6</v>
+        <v>21.1</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="AB31" t="n">
-        <v>84.90000000000001</v>
+        <v>86.7</v>
       </c>
       <c r="AC31" t="n">
-        <v>-12.9</v>
+        <v>-11.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AE31" t="n">
         <v>30</v>
       </c>
       <c r="AF31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG31" t="n">
         <v>30</v>
@@ -6037,40 +6104,40 @@
         <v>6</v>
       </c>
       <c r="AI31" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AJ31" t="n">
         <v>9</v>
       </c>
       <c r="AK31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN31" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR31" t="n">
         <v>23</v>
       </c>
-      <c r="AO31" t="n">
-        <v>22</v>
-      </c>
-      <c r="AP31" t="n">
+      <c r="AS31" t="n">
         <v>24</v>
       </c>
-      <c r="AQ31" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>19</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>23</v>
-      </c>
       <c r="AT31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU31" t="n">
         <v>29</v>
@@ -6085,19 +6152,19 @@
         <v>1</v>
       </c>
       <c r="AY31" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AZ31" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA31" t="n">
         <v>20</v>
       </c>
       <c r="BB31" t="n">
+        <v>27</v>
+      </c>
+      <c r="BC31" t="n">
         <v>29</v>
-      </c>
-      <c r="BC31" t="n">
-        <v>30</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-8-2011-12</t>
+          <t>2012-01-08</t>
         </is>
       </c>
     </row>
